--- a/CaseResults.xlsx
+++ b/CaseResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="8160" windowWidth="34400" windowHeight="18460" tabRatio="500"/>
+    <workbookView xWindow="1760" yWindow="8080" windowWidth="34400" windowHeight="18540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Lowest Color</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,19 +102,25 @@
   </si>
   <si>
     <t>0.0788960456848</t>
+  </si>
+  <si>
+    <t>4.2476580143 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="9">
     <numFmt numFmtId="170" formatCode="#,##0.00000000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00000000000"/>
     <numFmt numFmtId="174" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="176" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="179" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00000000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -158,12 +164,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -174,9 +182,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -509,7 +519,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -655,7 +665,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2.9672808647200002</v>
       </c>
       <c r="D6">
@@ -673,7 +683,7 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>8.8759930133800005</v>
       </c>
     </row>
@@ -684,13 +694,13 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1.3441350460099999</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2.00057387352</v>
       </c>
       <c r="F7">
@@ -702,7 +712,7 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <v>4.30690908432</v>
       </c>
     </row>
@@ -710,7 +720,30 @@
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.1980080604600001</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.3753349781000002</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.0136859416999999</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CaseResults.xlsx
+++ b/CaseResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="8080" windowWidth="34400" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="7040" yWindow="9840" windowWidth="34400" windowHeight="18620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Lowest Color</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +105,18 @@
   </si>
   <si>
     <t>4.2476580143 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00251889228821 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="14">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="170" formatCode="#,##0.00000000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="173" formatCode="#,##0.00000000000"/>
@@ -120,7 +125,10 @@
     <numFmt numFmtId="177" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="179" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00000000"/>
     <numFmt numFmtId="182" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -132,7 +140,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,8 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -186,7 +202,12 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -519,7 +540,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -529,68 +550,70 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:13" s="8" customFormat="1">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="38" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -617,20 +640,62 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>6.7223072051999996E-2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>7.6884984970100004E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="31" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="18">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3.1410932540900001E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>5</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.106057882309</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>15</v>
+      </c>
+      <c r="H4" s="17">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.13846302032499999</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8.1048965454099994E-2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>3</v>
+      </c>
+      <c r="M4" s="17">
+        <v>8.8603973388700005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -657,85 +722,121 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2.3829936981200001E-3</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>2.9672808647200002</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>4.5458459854099997</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>6.67987895012</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>8.8759930133800005</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="13">
+        <v>8.1317451000199998</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="13">
+        <v>8.6404919624299996</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>1.3441350460099999</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>2.00057387352</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>3.0061280727400002</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="12">
         <v>4.30690908432</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.2566239833799999</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.5883750915500001</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>1.1980080604600001</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>2.3753349781000002</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>3.0136859416999999</v>
       </c>
       <c r="H8">
@@ -743,6 +844,18 @@
       </c>
       <c r="I8" t="s">
         <v>23</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="15">
+        <v>8.1179690360999999</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="16">
+        <v>8.2085840702099997</v>
       </c>
     </row>
   </sheetData>

--- a/CaseResults.xlsx
+++ b/CaseResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="9840" windowWidth="34400" windowHeight="18620" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="7000" windowWidth="34400" windowHeight="18700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Lowest Color</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,27 +108,26 @@
   </si>
   <si>
     <t xml:space="preserve">0.00251889228821 </t>
+  </si>
+  <si>
+    <t>0.00683689117432 seconds</t>
+  </si>
+  <si>
+    <t>0.00760984420776</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000000000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00000000000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00000000000000"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00000000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00000000000000"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000000"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -140,7 +139,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +158,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,35 +171,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +532,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -657,41 +649,41 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17">
         <v>3.1410932540900001E-2</v>
       </c>
-      <c r="D4" s="18">
-        <v>5</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17">
         <v>0.106057882309</v>
       </c>
-      <c r="F4" s="18">
-        <v>5</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="17">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="17">
-        <v>4</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0.13846302032499999</v>
+        <v>5</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="17">
-        <v>8.1048965454099994E-2</v>
+        <v>9.3941688537599998E-3</v>
       </c>
       <c r="L4" s="17">
-        <v>3</v>
-      </c>
-      <c r="M4" s="17">
-        <v>8.8603973388700005E-2</v>
+        <v>5</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1">
@@ -849,13 +841,13 @@
         <v>4</v>
       </c>
       <c r="K8" s="15">
-        <v>8.1179690360999999</v>
+        <v>5.9993429184</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" s="16">
-        <v>8.2085840702099997</v>
+        <v>6.4553999900800001</v>
       </c>
     </row>
   </sheetData>

--- a/CaseResults.xlsx
+++ b/CaseResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="7000" windowWidth="34400" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="6920" windowWidth="34400" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,108 +19,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Lowest Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Clockwise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Max Degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hillclimber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Simulated annealing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Hybrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aantal kleuren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tijd in seconden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spanje</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.142666816711</t>
-  </si>
-  <si>
-    <t>Time in seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17270898819</t>
-  </si>
-  <si>
-    <t>0.00740909576416</t>
-  </si>
-  <si>
-    <t>0.0154368877411</t>
-  </si>
-  <si>
-    <t>0.00513410568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00311493873596 </t>
-  </si>
-  <si>
-    <t>0.00191283226013</t>
-  </si>
-  <si>
-    <t>0.00408506393433</t>
-  </si>
-  <si>
-    <t>0.0788960456848</t>
-  </si>
-  <si>
-    <t>4.2476580143 seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00251889228821 </t>
-  </si>
-  <si>
-    <t>0.00683689117432 seconds</t>
-  </si>
-  <si>
-    <t>0.00760984420776</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netwerk1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netwerk2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netwerk3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algoritme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
@@ -128,14 +97,25 @@
     <numFmt numFmtId="168" formatCode="#,##0.00000000000"/>
     <numFmt numFmtId="169" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="170" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -159,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -167,39 +147,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -207,6 +413,107 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Pijl omlaag 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="261620" y="749300"/>
+          <a:ext cx="246380" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2298700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Pijl links 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="76200"/>
+          <a:ext cx="431800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,331 +836,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="64" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="8" customFormat="1">
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>14</v>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="38" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>7.4090957641600001E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.5436887741100001E-2</v>
+      </c>
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="8">
+        <v>0.14266681671100001</v>
+      </c>
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="8">
+        <v>7.8896045684800006E-2</v>
+      </c>
+      <c r="J3" s="5">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="13">
         <v>6.7223072051999996E-2</v>
       </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="5">
+        <v>4</v>
+      </c>
+      <c r="M3" s="15">
         <v>7.6884984970100004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="31" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
         <v>3.1410932540900001E-2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="8">
         <v>0.106057882309</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="G4" s="8">
+        <v>0.17270898819</v>
+      </c>
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="17">
-        <v>4</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="I4" s="8">
+        <v>6.8368911743199997E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4</v>
+      </c>
+      <c r="K4" s="13">
         <v>9.3941688537599998E-3</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="6">
         <v>5</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>26</v>
+      <c r="M4" s="15">
+        <v>7.6098442077600003E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.9128322601299999E-3</v>
+      </c>
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="8">
+        <v>3.1149387359599998E-3</v>
+      </c>
+      <c r="F5" s="5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="8">
+        <v>5.1341056823699998E-3</v>
+      </c>
+      <c r="H5" s="5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="8">
+        <v>4.0850639343300004E-3</v>
+      </c>
+      <c r="J5" s="5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="13">
         <v>2.3829936981200001E-3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
+      <c r="M5" s="15">
+        <v>2.5188922882100001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
         <v>2.9672808647200002</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
         <v>4.5458459854099997</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
         <v>6.67987895012</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
         <v>8.8759930133800005</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="K6" s="13">
         <v>8.1317451000199998</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15">
         <v>8.6404919624299996</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
         <v>1.3441350460099999</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
         <v>2.00057387352</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
         <v>3.0061280727400002</v>
       </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8">
         <v>4.30690908432</v>
       </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13">
         <v>3.2566239833799999</v>
       </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7" s="5">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15">
         <v>3.5883750915500001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:13" ht="40" customHeight="1" thickBot="1">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
         <v>1.1980080604600001</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
         <v>2.3753349781000002</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12">
         <v>3.0136859416999999</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>4.2476580142999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="14">
         <v>5.9993429184</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>4</v>
       </c>
       <c r="M8" s="16">
         <v>6.4553999900800001</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
